--- a/wash_P/AUS.xlsx
+++ b/wash_P/AUS.xlsx
@@ -43520,7 +43520,7 @@
         <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
         <v>0</v>
@@ -58941,7 +58941,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
@@ -67039,7 +67039,7 @@
         <v>0</v>
       </c>
       <c r="YF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG21" t="n">
         <v>0</v>
@@ -70140,7 +70140,7 @@
         <v>0</v>
       </c>
       <c r="XW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX22" t="n">
         <v>0</v>
@@ -70167,7 +70167,7 @@
         <v>0</v>
       </c>
       <c r="YF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG22" t="n">
         <v>0</v>
@@ -72128,7 +72128,7 @@
         <v>0</v>
       </c>
       <c r="JG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23" t="n">
         <v>0</v>
@@ -73268,7 +73268,7 @@
         <v>0</v>
       </c>
       <c r="XW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX23" t="n">
         <v>0</v>
@@ -73295,7 +73295,7 @@
         <v>0</v>
       </c>
       <c r="YF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG23" t="n">
         <v>0</v>
@@ -76396,7 +76396,7 @@
         <v>0</v>
       </c>
       <c r="XW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX24" t="n">
         <v>0</v>
@@ -76423,7 +76423,7 @@
         <v>0</v>
       </c>
       <c r="YF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG24" t="n">
         <v>0</v>
@@ -78492,7 +78492,7 @@
         <v>0</v>
       </c>
       <c r="KQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR25" t="n">
         <v>0</v>
@@ -78501,7 +78501,7 @@
         <v>0</v>
       </c>
       <c r="KT25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU25" t="n">
         <v>0</v>
@@ -80963,7 +80963,7 @@
         <v>0</v>
       </c>
       <c r="CF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG26" t="n">
         <v>0</v>
@@ -83042,7 +83042,7 @@
         <v>0</v>
       </c>
       <c r="ACW26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACX26" t="n">
         <v>0</v>
@@ -84091,7 +84091,7 @@
         <v>0</v>
       </c>
       <c r="CF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG27" t="n">
         <v>0</v>
@@ -84145,7 +84145,7 @@
         <v>0</v>
       </c>
       <c r="CX27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY27" t="n">
         <v>0</v>
@@ -87273,7 +87273,7 @@
         <v>0</v>
       </c>
       <c r="CX28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY28" t="n">
         <v>0</v>
@@ -90452,7 +90452,7 @@
         <v>0</v>
       </c>
       <c r="DO29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP29" t="n">
         <v>0</v>
@@ -92186,7 +92186,7 @@
         <v>0</v>
       </c>
       <c r="ZU29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZV29" t="n">
         <v>0</v>
